--- a/biology/Zoologie/Azawakh/Azawakh.xlsx
+++ b/biology/Zoologie/Azawakh/Azawakh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Azawakh, Azawagh [1] est un lévrier originaire d'une région sahélienne comportant une partie du Mali, de l'Algérie, du Niger et du Burkina Faso. Il tire son nom de la vallée de l'Azawagh, un vaste territoire situé près du plateau central du Niger et de la frontière du Mali. On l'appelle aussi Lévrier Touareg, Sloughi Touareg, ou encore Lévrier du Sud saharien. Son nom d'origine en langue touarègue est oska, terme qui signifie « lévrier » et qualifie aussi une personne, un animal ou une chose digne d'éloge[2]. 
+L'Azawakh, Azawagh  est un lévrier originaire d'une région sahélienne comportant une partie du Mali, de l'Algérie, du Niger et du Burkina Faso. Il tire son nom de la vallée de l'Azawagh, un vaste territoire situé près du plateau central du Niger et de la frontière du Mali. On l'appelle aussi Lévrier Touareg, Sloughi Touareg, ou encore Lévrier du Sud saharien. Son nom d'origine en langue touarègue est oska, terme qui signifie « lévrier » et qualifie aussi une personne, un animal ou une chose digne d'éloge. 
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Azawakh est un lévrier d'origine ancienne, utilisé par les tribus nomades du sud du Sahara comme un chien de chasse. Il a d'abord été élevé par les Berbères avant d'être aussi élevé par les Dahoussaq et les Peuls Wodabés[3]. Les pasteurs paléo-berbères de bovins ont représenté dans l'art rupestre du Sahara, sur les parois des abris du Tassili n’Ajjer, un lévrier très proche du tessem égyptien et de l’oska actuel. Des découvertes archéologiques faites sur le site d’Azelik dans l'Azawagh ont notamment livré des restes de ce lévrier associés à des ossements humains datant de 1500 av. J.-C.[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Azawakh est un lévrier d'origine ancienne, utilisé par les tribus nomades du sud du Sahara comme un chien de chasse. Il a d'abord été élevé par les Berbères avant d'être aussi élevé par les Dahoussaq et les Peuls Wodabés. Les pasteurs paléo-berbères de bovins ont représenté dans l'art rupestre du Sahara, sur les parois des abris du Tassili n’Ajjer, un lévrier très proche du tessem égyptien et de l’oska actuel. Des découvertes archéologiques faites sur le site d’Azelik dans l'Azawagh ont notamment livré des restes de ce lévrier associés à des ossements humains datant de 1500 av. J.-C..
 À l'origine, ce lévrier était utilisé pour la chasse, sa rapidité convenant très bien à la poursuite des antilopes et à la capture des oiseaux au vol. Sa beauté en faisait également un animal d'apparat et de compagnie.
-En octobre 1967, Gervais Coppé[4] découvre ce chien à Gao (Mali) et fait venir un couple (Réhéouel et Reylane) des campements touaregs de la vallée de l'Azawakh (Est de Ménaka). Il l'amène en France en juillet 1968 avec ses maîtres et les installe au pied du château de Pierrefonds (Oise). La naissance de la première portée de ce couple à Pierrefonds se produit en décembre 1968 en tant que Sloughi, puisque la race n'est pas encore reconnue. Considérée comme Sloughi, cette race a été reconnue par la Fédération cynologique internationale (FCI) en 1981 (qui publie un standard en 1982) sous le nom de Lévrier de l'Azawakh.
-En 1973, quelques amateurs passionnés de la race (Guy Mazel[5], Gervais Coppé, Renato et Maryvonne Parigi) déposent les statuts du Club du Lévrier Touareg en vue d'obtenir de la FCI la reconnaissance d'un standard pour cette population canine. La thèse[6] du Dr Vétérinaire François Roussel, soutenue en 1975, contribuera alors au succès de la démarche. Ce lévrier appartient bien à la culture berbère, à la différence du lévrier des Arabes, le Sloughi.
+En octobre 1967, Gervais Coppé découvre ce chien à Gao (Mali) et fait venir un couple (Réhéouel et Reylane) des campements touaregs de la vallée de l'Azawakh (Est de Ménaka). Il l'amène en France en juillet 1968 avec ses maîtres et les installe au pied du château de Pierrefonds (Oise). La naissance de la première portée de ce couple à Pierrefonds se produit en décembre 1968 en tant que Sloughi, puisque la race n'est pas encore reconnue. Considérée comme Sloughi, cette race a été reconnue par la Fédération cynologique internationale (FCI) en 1981 (qui publie un standard en 1982) sous le nom de Lévrier de l'Azawakh.
+En 1973, quelques amateurs passionnés de la race (Guy Mazel, Gervais Coppé, Renato et Maryvonne Parigi) déposent les statuts du Club du Lévrier Touareg en vue d'obtenir de la FCI la reconnaissance d'un standard pour cette population canine. La thèse du Dr Vétérinaire François Roussel, soutenue en 1975, contribuera alors au succès de la démarche. Ce lévrier appartient bien à la culture berbère, à la différence du lévrier des Arabes, le Sloughi.
 La première version du standard comportait des carences. Car le terme « Lévrier de l'Azawakh » fait référence à un espace géographique (un toponyme) alors que ce stock canin appartient à des sociétés pastorales (Touaregs, Dahoussaqs et Peuls) qui l'ont façonné, élevé et transmis depuis plus de deux millénaires. Et l'ont nommé d'un terme berbère parfaitement univoque : Oska. Autre erreur de cette première version du standard, la robe bringée, qui a été pénalisée par les juges pendant plus de dix ans. De nos jours, toutes les robes rencontrées et listées dans la thèse du Dr Roussel ne sont toujours pas reconnues.
 Après plusieurs révisions, le standard est toujours détenu par la Société Canine de France, et géré par son Club des Lévriers d'Afrique et de la Méditerranée -le Clamed-
 qui en exerce la tutelle.
@@ -550,7 +564,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vif et attentif, c'est un animal qui peut se montrer un peu distant, surtout avec les étrangers. Il recherche peu les caresses.
 Doux et sensible, il nécessite un dressage patient, à commencer dès son plus jeune âge. Ce chien est aussi un chasseur rustique, vif et résistant.
@@ -584,7 +600,9 @@
           <t>Soins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne lui connaît pas de problème de santé particulier.
 Son poil très fin nécessite un bon brossage hebdomadaire.
@@ -617,7 +635,9 @@
           <t>Vitesse de pointe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chasseur, il est d'abord un coureur de fond des zones arides. Il peut poursuivre des gazelles à 40 km/h sur une longue distance, avec des pointes à près de 60 km/h. Les nomades ont pu l'associer à la chasse au lion, espèce aujourd'hui disparue de la zone. Sa proie de prédilection était la gazelle, devenue très rare avec la désertification. Cet auxiliaire des pasteurs contribue à protéger le cheptel des prédateurs les plus redoutés : la hyène et le chacal.
 </t>
@@ -648,13 +668,15 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Azawakh mâle de couleur Grizzle au Mali
 			V-Amschisch de Garde-Epée
-			Taussit, Chiot mâle au Niger[7]
-			Baya Kabisha de Garde-Epée[8]
+			Taussit, Chiot mâle au Niger
+			Baya Kabisha de Garde-Epée
 			Fahim Kel Az'Amour
 			Fahim Kel Az'Amour et Goumsao de Nulle Part Ailleurs
 			Fahim Kel Az'Amour et Goumsao de Nulle Part Ailleurs
@@ -687,7 +709,9 @@
           <t>Sport</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Épreuves de courses sur cynodromes ou racing.
 La poursuite à vue sur leurre (PVL) ou coursing.
